--- a/Finflux Automation Excels/Client/5041-CompondingPenalityCharge-MakeRepayment-WaiveCharge.xlsx
+++ b/Finflux Automation Excels/Client/5041-CompondingPenalityCharge-MakeRepayment-WaiveCharge.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="6"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="51">
   <si>
     <t>click</t>
   </si>
@@ -174,20 +174,17 @@
     <t>% Loan Amount + Interest</t>
   </si>
   <si>
-    <t>$2.43</t>
-  </si>
-  <si>
     <t>$0</t>
   </si>
   <si>
-    <t>$50.08</t>
+    <t>$51.73</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,32 +221,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -284,11 +257,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -314,22 +286,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -687,7 +646,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,22 +676,22 @@
         <v>5000</v>
       </c>
       <c r="B2" s="4">
-        <v>1390.3</v>
+        <v>1392.73</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5">
         <v>0</v>
       </c>
       <c r="E2" s="4">
-        <v>3609.7</v>
+        <v>3607.27</v>
       </c>
       <c r="F2" s="4">
-        <v>2882.64</v>
+        <v>2880.21</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
-        <v>238.95</v>
+        <v>238.78</v>
       </c>
       <c r="B3" s="5">
         <v>94.99</v>
@@ -744,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="5">
-        <v>143.96</v>
+        <v>143.79</v>
       </c>
       <c r="F3" s="5">
         <v>70.67</v>
@@ -772,22 +731,22 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>54.94</v>
+        <v>51.73</v>
       </c>
       <c r="B5" s="5">
-        <v>2.4300000000000002</v>
+        <v>0</v>
       </c>
       <c r="C5" s="5">
-        <v>50.08</v>
+        <v>51.73</v>
       </c>
       <c r="D5" s="5">
         <v>0</v>
       </c>
       <c r="E5" s="5">
-        <v>2.4300000000000002</v>
+        <v>0</v>
       </c>
       <c r="F5" s="5">
-        <v>2.4300000000000002</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -800,7 +759,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -886,10 +845,10 @@
         <v>0</v>
       </c>
       <c r="F4" s="5">
-        <v>2.4300000000000002</v>
+        <v>0</v>
       </c>
       <c r="G4" s="5">
-        <v>890.15</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -909,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="F5" s="5">
-        <v>2.4300000000000002</v>
+        <v>0</v>
       </c>
       <c r="G5" s="5">
-        <v>890.15</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -978,10 +937,10 @@
         <v>0</v>
       </c>
       <c r="F8" s="5">
-        <v>50.08</v>
+        <v>51.73</v>
       </c>
       <c r="G8" s="5">
-        <v>784.54</v>
+        <v>786.19</v>
       </c>
     </row>
   </sheetData>
@@ -994,7 +953,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1154,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="J4" s="5">
-        <v>2.4300000000000002</v>
+        <v>0</v>
       </c>
       <c r="K4" s="5">
-        <v>890.15</v>
+        <v>887.72</v>
       </c>
       <c r="L4" s="5">
         <v>600</v>
@@ -1167,13 +1126,13 @@
         <v>0</v>
       </c>
       <c r="O4" s="5">
-        <v>597.57000000000005</v>
+        <v>600</v>
       </c>
       <c r="P4" s="5">
         <v>0</v>
       </c>
       <c r="Q4" s="5">
-        <v>290.14999999999998</v>
+        <v>287.72000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -1189,22 +1148,22 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5">
-        <v>848.97</v>
+        <v>848.99</v>
       </c>
       <c r="G5" s="4">
-        <v>2470.58</v>
+        <v>2470.56</v>
       </c>
       <c r="H5" s="5">
-        <v>38.75</v>
+        <v>38.729999999999997</v>
       </c>
       <c r="I5" s="5">
         <v>0</v>
       </c>
       <c r="J5" s="5">
-        <v>2.4300000000000002</v>
+        <v>0</v>
       </c>
       <c r="K5" s="5">
-        <v>890.15</v>
+        <v>887.72</v>
       </c>
       <c r="L5" s="5">
         <v>0</v>
@@ -1220,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="Q5" s="5">
-        <v>890.15</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -1236,13 +1195,13 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5">
-        <v>850.51</v>
-      </c>
-      <c r="G6" s="4">
-        <v>1620.07</v>
+        <v>850.56</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1620</v>
       </c>
       <c r="H6" s="5">
-        <v>37.21</v>
+        <v>37.159999999999997</v>
       </c>
       <c r="I6" s="5">
         <v>0</v>
@@ -1283,13 +1242,13 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5">
-        <v>853.77</v>
+        <v>853.82</v>
       </c>
       <c r="G7" s="5">
-        <v>766.3</v>
+        <v>766.18</v>
       </c>
       <c r="H7" s="5">
-        <v>33.950000000000003</v>
+        <v>33.9</v>
       </c>
       <c r="I7" s="5">
         <v>0</v>
@@ -1330,22 +1289,22 @@
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5">
-        <v>766.3</v>
+        <v>766.18</v>
       </c>
       <c r="G8" s="5">
         <v>0</v>
       </c>
       <c r="H8" s="5">
-        <v>34.049999999999997</v>
+        <v>34</v>
       </c>
       <c r="I8" s="5">
         <v>0</v>
       </c>
       <c r="J8" s="5">
-        <v>50.08</v>
+        <v>51.73</v>
       </c>
       <c r="K8" s="5">
-        <v>850.43</v>
+        <v>851.91</v>
       </c>
       <c r="L8" s="5">
         <v>0</v>
@@ -1358,10 +1317,10 @@
         <v>0</v>
       </c>
       <c r="P8" s="5">
-        <v>50.08</v>
+        <v>51.73</v>
       </c>
       <c r="Q8" s="5">
-        <v>800.35</v>
+        <v>800.18</v>
       </c>
     </row>
   </sheetData>
@@ -1374,7 +1333,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1416,7 +1375,7 @@
     </row>
     <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <v>982</v>
+        <v>261</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>33</v>
@@ -1428,19 +1387,19 @@
         <v>34</v>
       </c>
       <c r="E2" s="5">
-        <v>50.08</v>
+        <v>51.73</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="4">
-        <v>3755.04</v>
+        <v>3750.01</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
-        <v>981</v>
+        <v>260</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>33</v>
@@ -1452,19 +1411,19 @@
         <v>35</v>
       </c>
       <c r="E3" s="5">
-        <v>37.89</v>
+        <v>37.83</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="4">
-        <v>3755.04</v>
+        <v>3750.01</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <v>980</v>
+        <v>259</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>33</v>
@@ -1476,7 +1435,7 @@
         <v>36</v>
       </c>
       <c r="E4" s="5">
-        <v>37.89</v>
+        <v>37.83</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -1488,7 +1447,7 @@
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>979</v>
+        <v>258</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>33</v>
@@ -1500,19 +1459,19 @@
         <v>35</v>
       </c>
       <c r="E5" s="5">
-        <v>33.9</v>
+        <v>33.86</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="4">
-        <v>3717.15</v>
+        <v>3712.18</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <v>978</v>
+        <v>257</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>33</v>
@@ -1524,7 +1483,7 @@
         <v>36</v>
       </c>
       <c r="E6" s="5">
-        <v>33.9</v>
+        <v>33.86</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -1536,7 +1495,7 @@
     </row>
     <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <v>977</v>
+        <v>256</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>33</v>
@@ -1548,19 +1507,19 @@
         <v>35</v>
       </c>
       <c r="E7" s="5">
-        <v>37.159999999999997</v>
+        <v>37.11</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="4">
-        <v>3683.25</v>
+        <v>3678.32</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <v>976</v>
+        <v>255</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>33</v>
@@ -1572,7 +1531,7 @@
         <v>36</v>
       </c>
       <c r="E8" s="5">
-        <v>37.159999999999997</v>
+        <v>37.11</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -1584,7 +1543,7 @@
     </row>
     <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <v>975</v>
+        <v>254</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>33</v>
@@ -1596,19 +1555,19 @@
         <v>35</v>
       </c>
       <c r="E9" s="5">
-        <v>41.92</v>
+        <v>39.47</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="4">
-        <v>3646.09</v>
+        <v>3641.21</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
-        <v>974</v>
+        <v>253</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>33</v>
@@ -1620,7 +1579,7 @@
         <v>36</v>
       </c>
       <c r="E10" s="5">
-        <v>41.92</v>
+        <v>39.47</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -1632,7 +1591,7 @@
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
-        <v>973</v>
+        <v>252</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>33</v>
@@ -1651,12 +1610,12 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="4">
-        <v>3604.17</v>
+        <v>3601.74</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>964</v>
+        <v>243</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>33</v>
@@ -1668,19 +1627,19 @@
         <v>35</v>
       </c>
       <c r="E12" s="5">
-        <v>47.51</v>
+        <v>45.08</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="4">
-        <v>4204.17</v>
+        <v>4201.74</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <v>963</v>
+        <v>242</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>33</v>
@@ -1692,7 +1651,7 @@
         <v>36</v>
       </c>
       <c r="E13" s="5">
-        <v>47.51</v>
+        <v>45.08</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -1704,7 +1663,7 @@
     </row>
     <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
-        <v>962</v>
+        <v>241</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>33</v>
@@ -1728,7 +1687,7 @@
     </row>
     <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
-        <v>951</v>
+        <v>230</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>33</v>
@@ -1752,7 +1711,7 @@
     </row>
     <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
-        <v>950</v>
+        <v>229</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>33</v>
@@ -1776,7 +1735,7 @@
     </row>
     <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
-        <v>949</v>
+        <v>228</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>33</v>
@@ -1805,161 +1764,98 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="9.140625" style="12"/>
-    <col min="5" max="5" width="10" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="4" width="9.140625" style="11"/>
+    <col min="5" max="5" width="9.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-    </row>
-    <row r="3" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="14">
-        <v>41958</v>
-      </c>
-      <c r="F3" s="13" t="s">
+      <c r="E3" s="9">
+        <v>42095</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="I3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="K3" s="13"/>
-    </row>
-    <row r="4" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="14">
-        <v>41988</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="K4" s="15"/>
-    </row>
-    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="14">
-        <v>42095</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>50</v>
-      </c>
+      <c r="K3"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="K4" r:id="rId1" location="/loanaccountcharge/23/waivecharge/156" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/23/waivecharge/156"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>